--- a/Drastic_layout/dumped_layout.xlsx
+++ b/Drastic_layout/dumped_layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xeno\Documents\source\retroarch_tools\Drastic_layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E2962A-2C97-495F-82B0-33FB538ED375}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D993B59-BF85-46CA-B826-A6850A5E383D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" xr2:uid="{F14A857B-49DB-48D1-A799-61796C38B048}"/>
   </bookViews>
@@ -244,7 +244,9 @@
     <t>Note:
 1. 8-byte field = (x, y, w, h). x, y, w, h are all 2 bytes in big endian.
 2. (x, y) is center for ABXY block and is upper left corner for other controls.
-3. 1-byte field = Enable. 01 is enable. 00 is disable.</t>
+3. 1-byte field = Enable. 01 is enable. 00 is disable.
+4. Configuration file is stored in /sdcard/DraStic/config/
+5. Height 0 corresponds to 89 in screenshot on mi phone 8</t>
   </si>
 </sst>
 </file>
@@ -380,10 +382,10 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,7 +704,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="J10" sqref="J10:Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -975,184 +977,184 @@
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
